--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf2-Fgfrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf2-Fgfrl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fgf2</t>
   </si>
   <si>
     <t>Fgfrl1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H2">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I2">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J2">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.151350666666667</v>
+        <v>1.921622333333333</v>
       </c>
       <c r="N2">
-        <v>3.454052</v>
+        <v>5.764867</v>
       </c>
       <c r="O2">
-        <v>0.08771067958196711</v>
+        <v>0.1392241219313625</v>
       </c>
       <c r="P2">
-        <v>0.08771067958196713</v>
+        <v>0.1392241219313625</v>
       </c>
       <c r="Q2">
-        <v>1.024347861111556</v>
+        <v>2.048688969584223</v>
       </c>
       <c r="R2">
-        <v>9.219130750004</v>
+        <v>18.438200726258</v>
       </c>
       <c r="S2">
-        <v>0.008180558405370365</v>
+        <v>0.01453657901365333</v>
       </c>
       <c r="T2">
-        <v>0.008180558405370365</v>
+        <v>0.01453657901365333</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H3">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I3">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J3">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>31.103307</v>
       </c>
       <c r="O3">
-        <v>0.7898237184085691</v>
+        <v>0.7511588049189343</v>
       </c>
       <c r="P3">
-        <v>0.7898237184085692</v>
+        <v>0.7511588049189343</v>
       </c>
       <c r="Q3">
-        <v>9.224124593071002</v>
+        <v>11.053334269202</v>
       </c>
       <c r="R3">
-        <v>83.01712133763901</v>
+        <v>99.48000842281802</v>
       </c>
       <c r="S3">
-        <v>0.07366490704646743</v>
+        <v>0.07842950753094853</v>
       </c>
       <c r="T3">
-        <v>0.07366490704646743</v>
+        <v>0.07842950753094853</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,46 +664,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H4">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I4">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J4">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1322436666666667</v>
+        <v>0.1441973333333333</v>
       </c>
       <c r="N4">
-        <v>0.396731</v>
+        <v>0.432592</v>
       </c>
       <c r="O4">
-        <v>0.01007441278279348</v>
+        <v>0.01044729069283506</v>
       </c>
       <c r="P4">
-        <v>0.01007441278279349</v>
+        <v>0.01044729069283506</v>
       </c>
       <c r="Q4">
-        <v>0.1176561763652222</v>
+        <v>0.1537323339342222</v>
       </c>
       <c r="R4">
-        <v>1.058905587287</v>
+        <v>1.383591005408</v>
       </c>
       <c r="S4">
-        <v>0.0009396155925622979</v>
+        <v>0.001090815761868282</v>
       </c>
       <c r="T4">
-        <v>0.000939615592562298</v>
+        <v>0.001090815761868283</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H5">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I5">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J5">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.100777333333333</v>
+        <v>1.182384</v>
       </c>
       <c r="N5">
-        <v>3.302332</v>
+        <v>3.547152</v>
       </c>
       <c r="O5">
-        <v>0.08385796853240096</v>
+        <v>0.08566531067535062</v>
       </c>
       <c r="P5">
-        <v>0.08385796853240098</v>
+        <v>0.08566531067535062</v>
       </c>
       <c r="Q5">
-        <v>0.9793531541737778</v>
+        <v>1.260568747872</v>
       </c>
       <c r="R5">
-        <v>8.814178387564001</v>
+        <v>11.345118730848</v>
       </c>
       <c r="S5">
-        <v>0.00782122556346098</v>
+        <v>0.008944431037426957</v>
       </c>
       <c r="T5">
-        <v>0.00782122556346098</v>
+        <v>0.008944431037426957</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,46 +788,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H6">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I6">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J6">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.3745466666666666</v>
+        <v>0.1863936666666667</v>
       </c>
       <c r="N6">
-        <v>1.12364</v>
+        <v>0.559181</v>
       </c>
       <c r="O6">
-        <v>0.02853322069426908</v>
+        <v>0.01350447178151746</v>
       </c>
       <c r="P6">
-        <v>0.02853322069426909</v>
+        <v>0.01350447178151746</v>
       </c>
       <c r="Q6">
-        <v>0.3332312978088889</v>
+        <v>0.1987188857437778</v>
       </c>
       <c r="R6">
-        <v>2.99908168028</v>
+        <v>1.788469971694</v>
       </c>
       <c r="S6">
-        <v>0.002661223006083972</v>
+        <v>0.00141002017729701</v>
       </c>
       <c r="T6">
-        <v>0.002661223006083972</v>
+        <v>0.00141002017729701</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>22.25574</v>
       </c>
       <c r="I7">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J7">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.151350666666667</v>
+        <v>1.921622333333333</v>
       </c>
       <c r="N7">
-        <v>3.454052</v>
+        <v>5.764867</v>
       </c>
       <c r="O7">
-        <v>0.08771067958196711</v>
+        <v>0.1392241219313625</v>
       </c>
       <c r="P7">
-        <v>0.08771067958196713</v>
+        <v>0.1392241219313625</v>
       </c>
       <c r="Q7">
-        <v>8.541387028720001</v>
+        <v>14.25570900962</v>
       </c>
       <c r="R7">
-        <v>76.87248325848</v>
+        <v>128.30138108658</v>
       </c>
       <c r="S7">
-        <v>0.06821248728483197</v>
+        <v>0.1011521238658534</v>
       </c>
       <c r="T7">
-        <v>0.06821248728483197</v>
+        <v>0.1011521238658534</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>22.25574</v>
       </c>
       <c r="I8">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J8">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>31.103307</v>
       </c>
       <c r="O8">
-        <v>0.7898237184085691</v>
+        <v>0.7511588049189343</v>
       </c>
       <c r="P8">
-        <v>0.7898237184085692</v>
+        <v>0.7511588049189343</v>
       </c>
       <c r="Q8">
         <v>76.91412374802002</v>
@@ -948,10 +948,10 @@
         <v>692.2271137321801</v>
       </c>
       <c r="S8">
-        <v>0.6142449312441518</v>
+        <v>0.5457481607644487</v>
       </c>
       <c r="T8">
-        <v>0.6142449312441519</v>
+        <v>0.5457481607644487</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,40 +980,40 @@
         <v>22.25574</v>
       </c>
       <c r="I9">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J9">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1322436666666667</v>
+        <v>0.1441973333333333</v>
       </c>
       <c r="N9">
-        <v>0.396731</v>
+        <v>0.432592</v>
       </c>
       <c r="O9">
-        <v>0.01007441278279348</v>
+        <v>0.01044729069283506</v>
       </c>
       <c r="P9">
-        <v>0.01007441278279349</v>
+        <v>0.01044729069283506</v>
       </c>
       <c r="Q9">
-        <v>0.9810602206600002</v>
+        <v>1.06973945312</v>
       </c>
       <c r="R9">
-        <v>8.829541985940001</v>
+        <v>9.62765507808</v>
       </c>
       <c r="S9">
-        <v>0.007834858390377062</v>
+        <v>0.007590391862878578</v>
       </c>
       <c r="T9">
-        <v>0.007834858390377064</v>
+        <v>0.00759039186287858</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>22.25574</v>
       </c>
       <c r="I10">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J10">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.100777333333333</v>
+        <v>1.182384</v>
       </c>
       <c r="N10">
-        <v>3.302332</v>
+        <v>3.547152</v>
       </c>
       <c r="O10">
-        <v>0.08385796853240096</v>
+        <v>0.08566531067535062</v>
       </c>
       <c r="P10">
-        <v>0.08385796853240098</v>
+        <v>0.08566531067535062</v>
       </c>
       <c r="Q10">
-        <v>8.166204709520001</v>
+        <v>8.771610294720002</v>
       </c>
       <c r="R10">
-        <v>73.49584238568001</v>
+        <v>78.94449265248001</v>
       </c>
       <c r="S10">
-        <v>0.06521623865543821</v>
+        <v>0.06223941653380894</v>
       </c>
       <c r="T10">
-        <v>0.06521623865543823</v>
+        <v>0.06223941653380894</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>22.25574</v>
       </c>
       <c r="I11">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J11">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.3745466666666666</v>
+        <v>0.1863936666666667</v>
       </c>
       <c r="N11">
-        <v>1.12364</v>
+        <v>0.559181</v>
       </c>
       <c r="O11">
-        <v>0.02853322069426908</v>
+        <v>0.01350447178151746</v>
       </c>
       <c r="P11">
-        <v>0.02853322069426909</v>
+        <v>0.01350447178151746</v>
       </c>
       <c r="Q11">
-        <v>2.7786044104</v>
+        <v>1.38277632766</v>
       </c>
       <c r="R11">
-        <v>25.0074396936</v>
+        <v>12.44498694894</v>
       </c>
       <c r="S11">
-        <v>0.02219025052683879</v>
+        <v>0.009811561268530871</v>
       </c>
       <c r="T11">
-        <v>0.0221902505268388</v>
+        <v>0.009811561268530873</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H12">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I12">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J12">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.151350666666667</v>
+        <v>1.921622333333333</v>
       </c>
       <c r="N12">
-        <v>3.454052</v>
+        <v>5.764867</v>
       </c>
       <c r="O12">
-        <v>0.08771067958196711</v>
+        <v>0.1392241219313625</v>
       </c>
       <c r="P12">
-        <v>0.08771067958196713</v>
+        <v>0.1392241219313625</v>
       </c>
       <c r="Q12">
-        <v>0.343578006492</v>
+        <v>0.8332987140344446</v>
       </c>
       <c r="R12">
-        <v>3.092202058428</v>
+        <v>7.499688426310001</v>
       </c>
       <c r="S12">
-        <v>0.002743852997221645</v>
+        <v>0.005912714315534088</v>
       </c>
       <c r="T12">
-        <v>0.002743852997221647</v>
+        <v>0.005912714315534088</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H13">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I13">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J13">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>31.103307</v>
       </c>
       <c r="O13">
-        <v>0.7898237184085691</v>
+        <v>0.7511588049189343</v>
       </c>
       <c r="P13">
-        <v>0.7898237184085692</v>
+        <v>0.7511588049189343</v>
       </c>
       <c r="Q13">
-        <v>3.093877050597</v>
+        <v>4.495913908390001</v>
       </c>
       <c r="R13">
-        <v>27.844893455373</v>
+        <v>40.46322517551</v>
       </c>
       <c r="S13">
-        <v>0.02470805365276927</v>
+        <v>0.03190099070097396</v>
       </c>
       <c r="T13">
-        <v>0.02470805365276928</v>
+        <v>0.03190099070097396</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H14">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I14">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J14">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.1322436666666667</v>
+        <v>0.1441973333333333</v>
       </c>
       <c r="N14">
-        <v>0.396731</v>
+        <v>0.432592</v>
       </c>
       <c r="O14">
-        <v>0.01007441278279348</v>
+        <v>0.01044729069283506</v>
       </c>
       <c r="P14">
-        <v>0.01007441278279349</v>
+        <v>0.01044729069283506</v>
       </c>
       <c r="Q14">
-        <v>0.039463229301</v>
+        <v>0.06253021228444444</v>
       </c>
       <c r="R14">
-        <v>0.355169063709</v>
+        <v>0.56277191056</v>
       </c>
       <c r="S14">
-        <v>0.0003151578330148882</v>
+        <v>0.0004436863697264</v>
       </c>
       <c r="T14">
-        <v>0.0003151578330148883</v>
+        <v>0.0004436863697264</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H15">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I15">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J15">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.100777333333333</v>
+        <v>1.182384</v>
       </c>
       <c r="N15">
-        <v>3.302332</v>
+        <v>3.547152</v>
       </c>
       <c r="O15">
-        <v>0.08385796853240096</v>
+        <v>0.08566531067535062</v>
       </c>
       <c r="P15">
-        <v>0.08385796853240098</v>
+        <v>0.08566531067535062</v>
       </c>
       <c r="Q15">
-        <v>0.328486266372</v>
+        <v>0.5127329390400001</v>
       </c>
       <c r="R15">
-        <v>2.956376397348</v>
+        <v>4.614596451360001</v>
       </c>
       <c r="S15">
-        <v>0.002623328645897905</v>
+        <v>0.003638123205578789</v>
       </c>
       <c r="T15">
-        <v>0.002623328645897906</v>
+        <v>0.003638123205578789</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H16">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I16">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J16">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.3745466666666666</v>
+        <v>0.1863936666666667</v>
       </c>
       <c r="N16">
-        <v>1.12364</v>
+        <v>0.559181</v>
       </c>
       <c r="O16">
-        <v>0.02853322069426908</v>
+        <v>0.01350447178151746</v>
       </c>
       <c r="P16">
-        <v>0.02853322069426909</v>
+        <v>0.01350447178151746</v>
       </c>
       <c r="Q16">
-        <v>0.11176959444</v>
+        <v>0.08082837092555557</v>
       </c>
       <c r="R16">
-        <v>1.00592634996</v>
+        <v>0.7274553383300001</v>
       </c>
       <c r="S16">
-        <v>0.0008926046804732903</v>
+        <v>0.0005735219049588945</v>
       </c>
       <c r="T16">
-        <v>0.0008926046804732907</v>
+        <v>0.0005735219049588945</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H17">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I17">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J17">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.151350666666667</v>
+        <v>1.921622333333333</v>
       </c>
       <c r="N17">
-        <v>3.454052</v>
+        <v>5.764867</v>
       </c>
       <c r="O17">
-        <v>0.08771067958196711</v>
+        <v>0.1392241219313625</v>
       </c>
       <c r="P17">
-        <v>0.08771067958196713</v>
+        <v>0.1392241219313625</v>
       </c>
       <c r="Q17">
-        <v>1.073586139938667</v>
+        <v>1.828010501365</v>
       </c>
       <c r="R17">
-        <v>9.662275259448</v>
+        <v>16.452094512285</v>
       </c>
       <c r="S17">
-        <v>0.008573780894543139</v>
+        <v>0.01297074347809531</v>
       </c>
       <c r="T17">
-        <v>0.008573780894543139</v>
+        <v>0.01297074347809531</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H18">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I18">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J18">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>31.103307</v>
       </c>
       <c r="O18">
-        <v>0.7898237184085691</v>
+        <v>0.7511588049189343</v>
       </c>
       <c r="P18">
-        <v>0.7898237184085692</v>
+        <v>0.7511588049189343</v>
       </c>
       <c r="Q18">
-        <v>9.667509146202001</v>
+        <v>9.862703133165001</v>
       </c>
       <c r="R18">
-        <v>87.007582315818</v>
+        <v>88.764328198485</v>
       </c>
       <c r="S18">
-        <v>0.07720582646518057</v>
+        <v>0.06998132245157543</v>
       </c>
       <c r="T18">
-        <v>0.07720582646518058</v>
+        <v>0.06998132245157543</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H19">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I19">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J19">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.1322436666666667</v>
+        <v>0.1441973333333333</v>
       </c>
       <c r="N19">
-        <v>0.396731</v>
+        <v>0.432592</v>
       </c>
       <c r="O19">
-        <v>0.01007441278279348</v>
+        <v>0.01044729069283506</v>
       </c>
       <c r="P19">
-        <v>0.01007441278279349</v>
+        <v>0.01044729069283506</v>
       </c>
       <c r="Q19">
-        <v>0.1233116649326667</v>
+        <v>0.13717276024</v>
       </c>
       <c r="R19">
-        <v>1.109804984394</v>
+        <v>1.23455484216</v>
       </c>
       <c r="S19">
-        <v>0.0009847809668392352</v>
+        <v>0.0009733164464464152</v>
       </c>
       <c r="T19">
-        <v>0.0009847809668392354</v>
+        <v>0.0009733164464464154</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H20">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I20">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J20">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.100777333333333</v>
+        <v>1.182384</v>
       </c>
       <c r="N20">
-        <v>3.302332</v>
+        <v>3.547152</v>
       </c>
       <c r="O20">
-        <v>0.08385796853240096</v>
+        <v>0.08566531067535062</v>
       </c>
       <c r="P20">
-        <v>0.08385796853240098</v>
+        <v>0.08566531067535062</v>
       </c>
       <c r="Q20">
-        <v>1.026428630685333</v>
+        <v>1.12478416344</v>
       </c>
       <c r="R20">
-        <v>9.237857676168</v>
+        <v>10.12305747096</v>
       </c>
       <c r="S20">
-        <v>0.008197175667603855</v>
+        <v>0.00798096446454233</v>
       </c>
       <c r="T20">
-        <v>0.008197175667603855</v>
+        <v>0.00798096446454233</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,46 +1718,356 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H21">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I21">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J21">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.3745466666666666</v>
+        <v>0.1863936666666667</v>
       </c>
       <c r="N21">
-        <v>1.12364</v>
+        <v>0.559181</v>
       </c>
       <c r="O21">
-        <v>0.02853322069426908</v>
+        <v>0.01350447178151746</v>
       </c>
       <c r="P21">
-        <v>0.02853322069426909</v>
+        <v>0.01350447178151746</v>
       </c>
       <c r="Q21">
-        <v>0.3492490357066667</v>
+        <v>0.177313499195</v>
       </c>
       <c r="R21">
-        <v>3.14324132136</v>
+        <v>1.595821492755</v>
       </c>
       <c r="S21">
-        <v>0.00278914248087303</v>
+        <v>0.001258137145024302</v>
       </c>
       <c r="T21">
-        <v>0.002789142480873031</v>
+        <v>0.001258137145024302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.023536</v>
+      </c>
+      <c r="I22">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J22">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.921622333333333</v>
+      </c>
+      <c r="N22">
+        <v>5.764867</v>
+      </c>
+      <c r="O22">
+        <v>0.1392241219313625</v>
+      </c>
+      <c r="P22">
+        <v>0.1392241219313625</v>
+      </c>
+      <c r="Q22">
+        <v>0.6556165455235556</v>
+      </c>
+      <c r="R22">
+        <v>5.900548909712</v>
+      </c>
+      <c r="S22">
+        <v>0.004651961258226421</v>
+      </c>
+      <c r="T22">
+        <v>0.004651961258226421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.023536</v>
+      </c>
+      <c r="I23">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J23">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>10.367769</v>
+      </c>
+      <c r="N23">
+        <v>31.103307</v>
+      </c>
+      <c r="O23">
+        <v>0.7511588049189343</v>
+      </c>
+      <c r="P23">
+        <v>0.7511588049189343</v>
+      </c>
+      <c r="Q23">
+        <v>3.537261603728</v>
+      </c>
+      <c r="R23">
+        <v>31.835354433552</v>
+      </c>
+      <c r="S23">
+        <v>0.02509882347098774</v>
+      </c>
+      <c r="T23">
+        <v>0.02509882347098774</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.023536</v>
+      </c>
+      <c r="I24">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J24">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.1441973333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.432592</v>
+      </c>
+      <c r="O24">
+        <v>0.01044729069283506</v>
+      </c>
+      <c r="P24">
+        <v>0.01044729069283506</v>
+      </c>
+      <c r="Q24">
+        <v>0.04919705392355555</v>
+      </c>
+      <c r="R24">
+        <v>0.442773485312</v>
+      </c>
+      <c r="S24">
+        <v>0.000349080251915384</v>
+      </c>
+      <c r="T24">
+        <v>0.000349080251915384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.023536</v>
+      </c>
+      <c r="I25">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J25">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.182384</v>
+      </c>
+      <c r="N25">
+        <v>3.547152</v>
+      </c>
+      <c r="O25">
+        <v>0.08566531067535062</v>
+      </c>
+      <c r="P25">
+        <v>0.08566531067535062</v>
+      </c>
+      <c r="Q25">
+        <v>0.403404196608</v>
+      </c>
+      <c r="R25">
+        <v>3.630637769472</v>
+      </c>
+      <c r="S25">
+        <v>0.002862375433993597</v>
+      </c>
+      <c r="T25">
+        <v>0.002862375433993597</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.023536</v>
+      </c>
+      <c r="I26">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J26">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.1863936666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.559181</v>
+      </c>
+      <c r="O26">
+        <v>0.01350447178151746</v>
+      </c>
+      <c r="P26">
+        <v>0.01350447178151746</v>
+      </c>
+      <c r="Q26">
+        <v>0.06359354266844446</v>
+      </c>
+      <c r="R26">
+        <v>0.5723418840160001</v>
+      </c>
+      <c r="S26">
+        <v>0.0004512312857063846</v>
+      </c>
+      <c r="T26">
+        <v>0.0004512312857063847</v>
       </c>
     </row>
   </sheetData>
